--- a/data/trans_camb/P5_5-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_5-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>1,8</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 12,13</t>
+          <t>-8,42; 17,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 7,58</t>
+          <t>-9,79; 9,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 6,76</t>
+          <t>-5,68; 11,03</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>4,75%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,04; 35,88</t>
+          <t>-20,36; 55,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,12; 21,84</t>
+          <t>-22,7; 28,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 18,4</t>
+          <t>-14,22; 32,14</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>0,12</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 6,68</t>
+          <t>-12,39; 13,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 8,77</t>
+          <t>-11,28; 11,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 5,25</t>
+          <t>-8,53; 8,02</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,57%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,45%</t>
+          <t>0,23%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,23; 12,92</t>
+          <t>-19,87; 25,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,41; 20,93</t>
+          <t>-21,93; 29,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 11,04</t>
+          <t>-15,13; 16,62</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>2,77</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,9; 26,45</t>
+          <t>-28,24; 40,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 16,59</t>
+          <t>-24,36; 24,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 14,86</t>
+          <t>-18,41; 22,91</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,93%</t>
+          <t>-2,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>5,14%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-34,91; 63,68</t>
+          <t>-45,14; 119,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 36,11</t>
+          <t>-39,41; 64,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 32,4</t>
+          <t>-29,71; 55,09</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>1,31</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 7,08</t>
+          <t>-6,49; 12,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 5,5</t>
+          <t>-6,71; 7,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 4,63</t>
+          <t>-4,76; 6,96</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,04%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>2,9%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 15,48</t>
+          <t>-12,42; 28,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 13,41</t>
+          <t>-14,82; 19,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 10,49</t>
+          <t>-9,69; 16,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_5-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_5-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,76</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.241331425383818</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.5936475198987157</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.8889951040435273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,42; 17,45</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,79; 9,93</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,68; 11,03</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-11.20245882054176</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-9.854356773661625</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.600511301735749</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>10,16%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,36%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,75%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.1560946545865</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.41238721991705</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.849692468762452</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-20,36; 55,29</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-22,7; 28,32</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-14,22; 32,14</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.0335266912187465</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.01542238084063857</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.02350431023385354</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2546601823351032</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2308420137891522</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1635838616431051</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,39; 13,25</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,28; 11,77</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,53; 8,02</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.4264898827655464</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.3056438722398928</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.2961846707414773</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,35%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,43%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,23%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.3808750210461453</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.031746692118862</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.5056097777520807</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-19,87; 25,18</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-21,93; 29,3</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-15,13; 16,62</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.06138469282656</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-10.4210646449455</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.898963680166303</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>6,74</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,19</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.78657564094274</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>12.59470219637832</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.472369608443884</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-28,24; 40,85</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-24,36; 24,77</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-18,41; 22,91</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.00661764424094561</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.0221523992582447</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.00978266771718337</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>12,04%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,3%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,14%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.2074587352134458</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2024499011067351</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1439144316077258</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-45,14; 119,79</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-39,41; 64,65</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-29,71; 55,09</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.2774903978399653</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.3072115536302398</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1913184698832706</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,7</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>6.86244348171191</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-2.634768862714626</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>1.691535409573186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-6,49; 12,19</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-6,71; 7,7</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-4,76; 6,96</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-28.17231252896629</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-25.92449689510549</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-19.59037706665286</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>5,69%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>0,3%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>2,9%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>41.62341295719145</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>22.01617069543201</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>22.41530644330562</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-12,42; 28,51</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-14,82; 19,97</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-9,69; 16,15</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.1225253182798909</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.05110639166271263</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.03143479114260869</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.442470000853488</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.4241126359577385</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.3220181985206856</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>1.2470009491187</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.6160973892877297</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.5374380375085048</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.260319537603566</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.4853721265735023</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.8576533373125084</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-8.222726822777242</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-6.202729582738372</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-5.227783513933504</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>10.5388126397629</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>7.888680877892404</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>6.535300230646186</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.02656681136436275</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.0112889439869974</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.01903227176210515</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1585024567418303</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1352450434747257</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1105709390055884</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.2435244930635575</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.2004390323424162</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.1550264998576042</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
